--- a/Assets/QuickSheet/Example/Excel/Example.xlsx
+++ b/Assets/QuickSheet/Example/Excel/Example.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Documents\Unity\QuickSheet\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\qs\Assets\QuickSheet\Example\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ExcelExample" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,64 +29,72 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Sceleton</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Undead</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Hydra</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Scavanger</t>
+  </si>
+  <si>
+    <t>Lurker</t>
+  </si>
+  <si>
     <t>Difficulty</t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Goblin</t>
-  </si>
-  <si>
-    <t>Dragon</t>
-  </si>
-  <si>
-    <t>Sceleton</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Undead</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Hydra</t>
-  </si>
-  <si>
-    <t>Wolf</t>
-  </si>
-  <si>
-    <t>Scavanger</t>
-  </si>
-  <si>
-    <t>Lurker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,166 +437,168 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>